--- a/Competition/data/ShieldArray.xlsx
+++ b/Competition/data/ShieldArray.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2F6098-FB9B-4ACD-A8BE-E3E49C3159D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC40A56-60B9-4B90-BAE9-83276ABD3B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2040" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5172" yWindow="3204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <r>
       <rPr>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>小型盾牌阵T10</t>
+  </si>
+  <si>
+    <t>idx_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -452,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -466,7 +470,7 @@
     <col min="7" max="7" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -488,8 +492,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -511,8 +518,11 @@
       <c r="G2">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -534,8 +544,11 @@
       <c r="G3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -557,8 +570,11 @@
       <c r="G4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -580,8 +596,11 @@
       <c r="G5">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -603,8 +622,11 @@
       <c r="G6">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -626,8 +648,11 @@
       <c r="G7">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -649,8 +674,11 @@
       <c r="G8">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -672,8 +700,11 @@
       <c r="G9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -695,8 +726,11 @@
       <c r="G10">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -718,8 +752,11 @@
       <c r="G11">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -741,8 +778,11 @@
       <c r="G12">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -764,8 +804,11 @@
       <c r="G13">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -787,8 +830,11 @@
       <c r="G14">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -810,8 +856,11 @@
       <c r="G15">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -833,8 +882,11 @@
       <c r="G16">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -856,8 +908,11 @@
       <c r="G17">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -879,8 +934,11 @@
       <c r="G18">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -902,8 +960,11 @@
       <c r="G19">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -925,8 +986,11 @@
       <c r="G20">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -947,6 +1011,9 @@
       </c>
       <c r="G21">
         <v>0.3</v>
+      </c>
+      <c r="H21">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Competition/data/ShieldArray.xlsx
+++ b/Competition/data/ShieldArray.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz\PycharmProject\gym_rl_learn\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC40A56-60B9-4B90-BAE9-83276ABD3B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5172" yWindow="3204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2040" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1019,5 +1018,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Competition/data/ShieldArray.xlsx
+++ b/Competition/data/ShieldArray.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz\PycharmProject\gym_rl_learn\Competition\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68F9560-55CE-4839-A920-7F952BD00B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2040" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="3840" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,11 +455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
